--- a/tools/反切下字與韻母對映表.xlsx
+++ b/tools/反切下字與韻母對映表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749CF879-D15D-48A0-BEA7-ED9897066875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B61E76-B2C6-4E3D-BECC-48FAFD214195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="1500" windowWidth="31455" windowHeight="10890" xr2:uid="{38FE46FC-C4FE-4E53-BD1D-1A118B6FD16A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38FE46FC-C4FE-4E53-BD1D-1A118B6FD16A}"/>
   </bookViews>
   <sheets>
     <sheet name="反切下字表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="614">
   <si>
     <t>ong</t>
   </si>
@@ -281,18 +281,12 @@
     <t>擬音</t>
   </si>
   <si>
-    <t>反切下字</t>
-  </si>
-  <si>
     <t>通</t>
   </si>
   <si>
     <t>東</t>
   </si>
   <si>
-    <t>舒</t>
-  </si>
-  <si>
     <t>一</t>
   </si>
   <si>
@@ -345,9 +339,6 @@
   </si>
   <si>
     <t>雙 江 項 講 慃 巷 絳 降</t>
-  </si>
-  <si>
-    <t>促</t>
   </si>
   <si>
     <t>屋一</t>
@@ -1904,6 +1895,13 @@
       <t xml:space="preserve"> 蠓 弄 貢 送 凍</t>
     </r>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>切語下字</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>平</t>
   </si>
 </sst>
 </file>
@@ -2564,7 +2562,7 @@
   <dimension ref="A1:J187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
@@ -2605,7 +2603,7 @@
         <v>80</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>81</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2613,31 +2611,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2645,31 +2643,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2677,31 +2675,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2709,31 +2707,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2741,31 +2739,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2773,22 +2771,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>85</v>
-      </c>
       <c r="F7" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>3</v>
@@ -2797,7 +2795,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2805,31 +2803,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>83</v>
-      </c>
       <c r="D8" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>106</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2837,22 +2835,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>3</v>
@@ -2861,7 +2859,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2869,31 +2867,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2901,31 +2899,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>7</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2933,31 +2931,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2965,31 +2963,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2997,31 +2995,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3029,31 +3027,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3061,31 +3059,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>8</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3093,31 +3091,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>134</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3125,22 +3123,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>8</v>
@@ -3149,7 +3147,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3157,22 +3155,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>9</v>
@@ -3181,7 +3179,7 @@
         <v>11</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3189,22 +3187,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>8</v>
@@ -3213,7 +3211,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3221,22 +3219,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>9</v>
@@ -3245,7 +3243,7 @@
         <v>11</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3253,22 +3251,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>8</v>
@@ -3277,7 +3275,7 @@
         <v>10</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3285,22 +3283,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>9</v>
@@ -3309,7 +3307,7 @@
         <v>11</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3317,31 +3315,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3349,31 +3347,31 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3381,31 +3379,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>9</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3413,31 +3411,31 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3445,22 +3443,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>13</v>
@@ -3469,7 +3467,7 @@
         <v>14</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3477,31 +3475,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3509,31 +3507,31 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3541,31 +3539,31 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3573,31 +3571,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>18</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3605,31 +3603,31 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3637,31 +3635,31 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3669,31 +3667,31 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3701,22 +3699,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>16</v>
@@ -3725,7 +3723,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3733,22 +3731,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D37" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>196</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>21</v>
@@ -3757,7 +3755,7 @@
         <v>22</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3765,31 +3763,31 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3797,31 +3795,31 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3829,31 +3827,31 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>23</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3861,31 +3859,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -3893,31 +3891,31 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>23</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3925,28 +3923,28 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>212</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>215</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>17</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J43" s="9"/>
     </row>
@@ -3955,31 +3953,31 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>23</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3987,31 +3985,31 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>219</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>17</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J45" s="15" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -4019,22 +4017,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>23</v>
@@ -4043,7 +4041,7 @@
         <v>24</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -4051,22 +4049,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E47" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>18</v>
@@ -4075,7 +4073,7 @@
         <v>25</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -4083,31 +4081,31 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -4115,31 +4113,31 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H49" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -4147,29 +4145,29 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -4177,29 +4175,29 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C51" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G51" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>237</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -4207,29 +4205,29 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -4237,29 +4235,29 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -4267,29 +4265,29 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C54" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G54" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>244</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -4297,31 +4295,31 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -4329,31 +4327,31 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -4361,31 +4359,31 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I57" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="J57" s="9" t="s">
         <v>249</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -4393,31 +4391,31 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>28</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -4425,31 +4423,31 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -4457,31 +4455,31 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -4489,31 +4487,31 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -4521,31 +4519,31 @@
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>29</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -4553,31 +4551,31 @@
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H63" s="8" t="s">
         <v>30</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -4585,31 +4583,31 @@
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>31</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -4617,31 +4615,31 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H65" s="8" t="s">
         <v>30</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -4649,22 +4647,22 @@
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H66" s="8" t="s">
         <v>29</v>
@@ -4673,7 +4671,7 @@
         <v>32</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -4681,22 +4679,22 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C67" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G67" s="8" t="s">
         <v>279</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>282</v>
       </c>
       <c r="H67" s="8" t="s">
         <v>30</v>
@@ -4705,7 +4703,7 @@
         <v>33</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -4713,31 +4711,31 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H68" s="8" t="s">
         <v>29</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -4745,31 +4743,31 @@
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H69" s="8" t="s">
         <v>30</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -4777,31 +4775,31 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>31</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -4809,31 +4807,31 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>30</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -4841,31 +4839,31 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H72" s="8" t="s">
         <v>31</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -4873,31 +4871,31 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C73" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G73" s="8" t="s">
         <v>297</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H73" s="8" t="s">
         <v>30</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -4905,31 +4903,31 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H74" s="8" t="s">
         <v>31</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -4937,31 +4935,31 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C75" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G75" s="8" t="s">
         <v>302</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>305</v>
       </c>
       <c r="H75" s="8" t="s">
         <v>30</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -4969,22 +4967,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>31</v>
@@ -4993,7 +4991,7 @@
         <v>34</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -5001,22 +4999,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C77" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G77" s="8" t="s">
         <v>307</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>310</v>
       </c>
       <c r="H77" s="8" t="s">
         <v>31</v>
@@ -5025,7 +5023,7 @@
         <v>35</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -5033,29 +5031,29 @@
         <v>77</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I78" s="13"/>
       <c r="J78" s="14" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -5063,29 +5061,29 @@
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I79" s="13"/>
       <c r="J79" s="14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -5093,29 +5091,29 @@
         <v>79</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H80" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I80" s="13"/>
       <c r="J80" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -5123,29 +5121,29 @@
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H81" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I81" s="13"/>
       <c r="J81" s="14" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -5153,29 +5151,29 @@
         <v>81</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H82" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I82" s="13"/>
       <c r="J82" s="14" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -5183,31 +5181,31 @@
         <v>82</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -5215,31 +5213,31 @@
         <v>83</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H84" s="13" t="s">
         <v>37</v>
       </c>
       <c r="I84" s="13" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -5247,31 +5245,31 @@
         <v>84</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H85" s="13" t="s">
         <v>37</v>
       </c>
       <c r="I85" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="J85" s="14" t="s">
         <v>326</v>
-      </c>
-      <c r="J85" s="14" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -5279,29 +5277,29 @@
         <v>85</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H86" s="13"/>
       <c r="I86" s="16" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J86" s="14" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -5309,31 +5307,31 @@
         <v>86</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H87" s="13" t="s">
         <v>37</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J87" s="14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -5341,31 +5339,31 @@
         <v>87</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H88" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J88" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -5373,31 +5371,31 @@
         <v>88</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H89" s="13" t="s">
         <v>37</v>
       </c>
       <c r="I89" s="13" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J89" s="14" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -5405,31 +5403,31 @@
         <v>89</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H90" s="13" t="s">
         <v>38</v>
       </c>
       <c r="I90" s="13" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J90" s="14" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -5437,31 +5435,31 @@
         <v>90</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H91" s="13" t="s">
         <v>39</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J91" s="14" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -5469,31 +5467,31 @@
         <v>91</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H92" s="13" t="s">
         <v>40</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="J92" s="14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -5501,31 +5499,31 @@
         <v>92</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H93" s="13" t="s">
         <v>39</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J93" s="14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -5533,22 +5531,22 @@
         <v>93</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H94" s="13" t="s">
         <v>38</v>
@@ -5557,7 +5555,7 @@
         <v>41</v>
       </c>
       <c r="J94" s="14" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -5565,22 +5563,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H95" s="13" t="s">
         <v>39</v>
@@ -5589,7 +5587,7 @@
         <v>42</v>
       </c>
       <c r="J95" s="14" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -5597,31 +5595,31 @@
         <v>95</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H96" s="13" t="s">
         <v>38</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J96" s="14" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -5629,31 +5627,31 @@
         <v>96</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H97" s="13" t="s">
         <v>39</v>
       </c>
       <c r="I97" s="13" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J97" s="14" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -5661,31 +5659,31 @@
         <v>97</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H98" s="13" t="s">
         <v>40</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J98" s="14" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -5693,31 +5691,31 @@
         <v>98</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H99" s="13" t="s">
         <v>39</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J99" s="14" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -5725,31 +5723,31 @@
         <v>99</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H100" s="13" t="s">
         <v>39</v>
       </c>
       <c r="I100" s="13" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J100" s="14" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -5757,31 +5755,31 @@
         <v>100</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H101" s="13" t="s">
         <v>39</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J101" s="14" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -5789,31 +5787,31 @@
         <v>101</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H102" s="13" t="s">
         <v>39</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J102" s="14" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -5821,31 +5819,31 @@
         <v>102</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H103" s="13" t="s">
         <v>39</v>
       </c>
       <c r="I103" s="13" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J103" s="14" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -5853,22 +5851,22 @@
         <v>103</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H104" s="13" t="s">
         <v>40</v>
@@ -5877,7 +5875,7 @@
         <v>43</v>
       </c>
       <c r="J104" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -5885,22 +5883,22 @@
         <v>104</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H105" s="13" t="s">
         <v>40</v>
@@ -5909,7 +5907,7 @@
         <v>44</v>
       </c>
       <c r="J105" s="14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -5917,31 +5915,31 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H106" s="8" t="s">
         <v>45</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -5949,22 +5947,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H107" s="8" t="s">
         <v>46</v>
@@ -5973,7 +5971,7 @@
         <v>47</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -5981,31 +5979,31 @@
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H108" s="8" t="s">
         <v>48</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -6013,31 +6011,31 @@
         <v>108</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H109" s="13" t="s">
         <v>48</v>
       </c>
       <c r="I109" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="J109" s="9" t="s">
         <v>389</v>
-      </c>
-      <c r="J109" s="9" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -6045,31 +6043,31 @@
         <v>109</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H110" s="13" t="s">
         <v>48</v>
       </c>
       <c r="I110" s="13" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -6077,31 +6075,31 @@
         <v>110</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H111" s="8" t="s">
         <v>48</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -6109,31 +6107,31 @@
         <v>111</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H112" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -6141,31 +6139,31 @@
         <v>112</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H113" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -6173,31 +6171,31 @@
         <v>113</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H114" s="17" t="s">
         <v>49</v>
       </c>
       <c r="I114" s="17" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -6205,31 +6203,31 @@
         <v>114</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H115" s="17" t="s">
         <v>49</v>
       </c>
       <c r="I115" s="17" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -6237,22 +6235,22 @@
         <v>115</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H116" s="8" t="s">
         <v>50</v>
@@ -6261,7 +6259,7 @@
         <v>51</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -6269,22 +6267,22 @@
         <v>116</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C117" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G117" s="8" t="s">
         <v>412</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>415</v>
       </c>
       <c r="H117" s="8" t="s">
         <v>21</v>
@@ -6293,7 +6291,7 @@
         <v>52</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -6301,31 +6299,31 @@
         <v>117</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H118" s="8" t="s">
         <v>53</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -6333,31 +6331,31 @@
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H119" s="8" t="s">
         <v>0</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -6365,31 +6363,31 @@
         <v>119</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H120" s="8" t="s">
         <v>0</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -6397,31 +6395,31 @@
         <v>120</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H121" s="8" t="s">
         <v>0</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -6429,31 +6427,31 @@
         <v>121</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H122" s="8" t="s">
         <v>0</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -6461,31 +6459,31 @@
         <v>122</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H123" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -6493,31 +6491,31 @@
         <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H124" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -6525,31 +6523,31 @@
         <v>124</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H125" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I125" s="8" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -6557,31 +6555,31 @@
         <v>125</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H126" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I126" s="8" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -6589,31 +6587,31 @@
         <v>126</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H127" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I127" s="8" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -6621,31 +6619,31 @@
         <v>127</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H128" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I128" s="8" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -6653,31 +6651,31 @@
         <v>128</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H129" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I129" s="8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -6685,31 +6683,31 @@
         <v>129</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H130" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I130" s="8" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -6717,31 +6715,31 @@
         <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H131" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I131" s="8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -6749,31 +6747,31 @@
         <v>131</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C132" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G132" s="8" t="s">
         <v>463</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F132" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G132" s="8" t="s">
-        <v>466</v>
       </c>
       <c r="H132" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I132" s="8" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -6781,31 +6779,31 @@
         <v>132</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="H133" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I133" s="8" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J133" s="9" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -6813,31 +6811,31 @@
         <v>133</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H134" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I134" s="8" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="J134" s="9" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -6845,31 +6843,31 @@
         <v>134</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H135" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I135" s="8" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="J135" s="9" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -6877,31 +6875,31 @@
         <v>135</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H136" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I136" s="8" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J136" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -6909,31 +6907,31 @@
         <v>136</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H137" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I137" s="8" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -6941,19 +6939,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
@@ -6965,31 +6963,31 @@
         <v>138</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H139" s="13" t="s">
         <v>3</v>
       </c>
       <c r="I139" s="13" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="J139" s="14" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -6997,31 +6995,31 @@
         <v>139</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H140" s="13" t="s">
         <v>3</v>
       </c>
       <c r="I140" s="13" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="J140" s="14" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -7029,31 +7027,31 @@
         <v>140</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H141" s="13" t="s">
         <v>3</v>
       </c>
       <c r="I141" s="13" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="J141" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -7061,31 +7059,31 @@
         <v>141</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H142" s="13" t="s">
         <v>3</v>
       </c>
       <c r="I142" s="13" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="J142" s="14" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -7093,31 +7091,31 @@
         <v>142</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H143" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I143" s="13" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="J143" s="14" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -7125,31 +7123,31 @@
         <v>143</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H144" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I144" s="13" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="J144" s="14" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -7157,31 +7155,31 @@
         <v>144</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G145" s="13" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H145" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I145" s="13" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="J145" s="14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -7189,31 +7187,31 @@
         <v>145</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H146" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I146" s="13" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J146" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -7221,31 +7219,31 @@
         <v>146</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F147" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H147" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I147" s="13" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="J147" s="14" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -7253,31 +7251,31 @@
         <v>147</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H148" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I148" s="13" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="J148" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -7285,31 +7283,31 @@
         <v>148</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G149" s="13" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H149" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I149" s="13" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J149" s="14" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -7317,31 +7315,31 @@
         <v>149</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F150" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H150" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I150" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="J150" s="14" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -7349,31 +7347,31 @@
         <v>150</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G151" s="13" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H151" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I151" s="13" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J151" s="14" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -7381,31 +7379,31 @@
         <v>151</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F152" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H152" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I152" s="13" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="J152" s="14" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -7413,22 +7411,22 @@
         <v>152</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F153" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G153" s="13" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H153" s="13" t="s">
         <v>55</v>
@@ -7437,7 +7435,7 @@
         <v>56</v>
       </c>
       <c r="J153" s="14" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -7445,22 +7443,22 @@
         <v>153</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E154" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F154" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G154" s="13" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H154" s="13" t="s">
         <v>55</v>
@@ -7469,7 +7467,7 @@
         <v>57</v>
       </c>
       <c r="J154" s="14" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -7477,31 +7475,31 @@
         <v>154</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E155" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G155" s="13" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H155" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I155" s="13" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="J155" s="14" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -7509,31 +7507,31 @@
         <v>155</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E156" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F156" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G156" s="13" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H156" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I156" s="13" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="J156" s="14" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -7541,31 +7539,31 @@
         <v>156</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F157" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G157" s="13" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="H157" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I157" s="13" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J157" s="14" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -7573,31 +7571,31 @@
         <v>157</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E158" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F158" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G158" s="18" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H158" s="18" t="s">
         <v>55</v>
       </c>
       <c r="I158" s="18" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="J158" s="14" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -7605,31 +7603,31 @@
         <v>158</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="H159" s="8" t="s">
         <v>58</v>
       </c>
       <c r="I159" s="8" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="J159" s="9" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -7637,31 +7635,31 @@
         <v>159</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H160" s="8" t="s">
         <v>59</v>
       </c>
       <c r="I160" s="8" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="J160" s="9" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -7669,31 +7667,31 @@
         <v>160</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H161" s="8" t="s">
         <v>58</v>
       </c>
       <c r="I161" s="8" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J161" s="9" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -7701,31 +7699,31 @@
         <v>161</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H162" s="8" t="s">
         <v>60</v>
       </c>
       <c r="I162" s="8" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="J162" s="9" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -7733,31 +7731,31 @@
         <v>162</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H163" s="8" t="s">
         <v>60</v>
       </c>
       <c r="I163" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="J163" s="9" t="s">
         <v>553</v>
-      </c>
-      <c r="J163" s="9" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -7765,31 +7763,31 @@
         <v>163</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H164" s="8" t="s">
         <v>60</v>
       </c>
       <c r="I164" s="8" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="J164" s="9" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -7797,31 +7795,31 @@
         <v>164</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H165" s="8" t="s">
         <v>61</v>
       </c>
       <c r="I165" s="8" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="J165" s="9" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -7829,31 +7827,31 @@
         <v>165</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H166" s="8" t="s">
         <v>62</v>
       </c>
       <c r="I166" s="8" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="J166" s="9" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -7861,31 +7859,31 @@
         <v>166</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G167" s="8" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="H167" s="8" t="s">
         <v>63</v>
       </c>
       <c r="I167" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="J167" s="9" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -7893,22 +7891,22 @@
         <v>167</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H168" s="8" t="s">
         <v>61</v>
@@ -7917,7 +7915,7 @@
         <v>64</v>
       </c>
       <c r="J168" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -7925,29 +7923,29 @@
         <v>168</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="H169" s="8" t="s">
         <v>61</v>
       </c>
       <c r="I169" s="8"/>
       <c r="J169" s="9" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -7955,31 +7953,31 @@
         <v>169</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="H170" s="8" t="s">
         <v>62</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="J170" s="9" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -7987,31 +7985,31 @@
         <v>170</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H171" s="8" t="s">
         <v>62</v>
       </c>
       <c r="I171" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="J171" s="9" t="s">
         <v>573</v>
-      </c>
-      <c r="J171" s="9" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -8019,31 +8017,31 @@
         <v>171</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H172" s="8" t="s">
         <v>62</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="J172" s="9" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -8051,22 +8049,22 @@
         <v>172</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="H173" s="8" t="s">
         <v>62</v>
@@ -8075,7 +8073,7 @@
         <v>65</v>
       </c>
       <c r="J173" s="9" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -8083,31 +8081,31 @@
         <v>173</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H174" s="8" t="s">
         <v>61</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J174" s="9" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -8115,31 +8113,31 @@
         <v>174</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E175" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F175" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H175" s="13" t="s">
         <v>66</v>
       </c>
       <c r="I175" s="13" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="J175" s="14" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -8147,31 +8145,31 @@
         <v>175</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E176" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F176" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H176" s="13" t="s">
         <v>66</v>
       </c>
       <c r="I176" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="J176" s="14" t="s">
         <v>585</v>
-      </c>
-      <c r="J176" s="14" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -8179,31 +8177,31 @@
         <v>176</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E177" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F177" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H177" s="13" t="s">
         <v>66</v>
       </c>
       <c r="I177" s="13" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="J177" s="14" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -8211,31 +8209,31 @@
         <v>177</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E178" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F178" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H178" s="13" t="s">
         <v>67</v>
       </c>
       <c r="I178" s="13" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="J178" s="14" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -8243,31 +8241,31 @@
         <v>178</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E179" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F179" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="H179" s="13" t="s">
         <v>68</v>
       </c>
       <c r="I179" s="13" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="J179" s="14" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -8275,31 +8273,31 @@
         <v>179</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E180" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F180" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G180" s="13" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H180" s="13" t="s">
         <v>69</v>
       </c>
       <c r="I180" s="13" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J180" s="14" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -8307,22 +8305,22 @@
         <v>180</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E181" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F181" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G181" s="13" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H181" s="13" t="s">
         <v>67</v>
@@ -8331,7 +8329,7 @@
         <v>70</v>
       </c>
       <c r="J181" s="14" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -8339,29 +8337,29 @@
         <v>181</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E182" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F182" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G182" s="13" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H182" s="13" t="s">
         <v>67</v>
       </c>
       <c r="I182" s="13"/>
       <c r="J182" s="14" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -8369,31 +8367,31 @@
         <v>182</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E183" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F183" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G183" s="13" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="H183" s="13" t="s">
         <v>68</v>
       </c>
       <c r="I183" s="13" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="J183" s="14" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -8401,31 +8399,31 @@
         <v>183</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E184" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F184" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G184" s="13" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="H184" s="13" t="s">
         <v>68</v>
       </c>
       <c r="I184" s="13" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="J184" s="14" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -8433,31 +8431,31 @@
         <v>184</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E185" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F185" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G185" s="13" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H185" s="13" t="s">
         <v>68</v>
       </c>
       <c r="I185" s="13" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="J185" s="14" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -8465,22 +8463,22 @@
         <v>185</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E186" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F186" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G186" s="13" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H186" s="13" t="s">
         <v>68</v>
@@ -8489,7 +8487,7 @@
         <v>71</v>
       </c>
       <c r="J186" s="14" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -8497,31 +8495,31 @@
         <v>186</v>
       </c>
       <c r="B187" s="20" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C187" s="21" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D187" s="20" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="E187" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F187" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G187" s="22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H187" s="22" t="s">
         <v>67</v>
       </c>
       <c r="I187" s="22" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="J187" s="23" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
